--- a/Windows Update Ring Deferral Calculator.xlsx
+++ b/Windows Update Ring Deferral Calculator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onevmw.sharepoint.com/teams/EUCOfficeoftheCTO-SISO/Shared Documents/General/Getting to Modern Management Program/Guidance/v1.7/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/helmlingp/GitHub/apps_WindowsUpdates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="676" documentId="8_{9FDE0622-2DD8-8D4A-9E7C-5D0ED714A8E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAA1CEF3-EA75-4C49-9E5E-3DFB9FDCDE20}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27ABEFA-4C2C-9346-9735-1A0CD4F65E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10680" yWindow="29320" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{78992652-D20F-B64E-BD2A-348D49042B90}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{78992652-D20F-B64E-BD2A-348D49042B90}"/>
   </bookViews>
   <sheets>
     <sheet name="Deferral Calc" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="130">
   <si>
     <t>Ring</t>
   </si>
@@ -92,9 +92,6 @@
     <t>Quality Updates Auto Restart Deadline (Days)</t>
   </si>
   <si>
-    <t>Feature Updates Auto Restart Deadline (Days)</t>
-  </si>
-  <si>
     <t>Auto-Restart Notification (Minutes)</t>
   </si>
   <si>
@@ -227,36 +224,18 @@
     <t>Saturday</t>
   </si>
   <si>
-    <t>TargetReleaseVersion</t>
-  </si>
-  <si>
-    <t>21H1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                    Delivery Optimization</t>
-  </si>
-  <si>
     <t>Custom Policy Objects</t>
   </si>
   <si>
     <t>VIP</t>
   </si>
   <si>
-    <t xml:space="preserve">                                    Deployment Ring</t>
-  </si>
-  <si>
     <t>Quality Updates Engaged Restart Deadline (Days)</t>
   </si>
   <si>
-    <t>Feature Updates Engaged Restart Deadline (Days)</t>
-  </si>
-  <si>
     <t>Quality Updates Engaged Restart Snooze Deadline (Days)</t>
   </si>
   <si>
-    <t>Feature Updates Engaged Restart Snooze Deadline (Days)</t>
-  </si>
-  <si>
     <t>Not Configured</t>
   </si>
   <si>
@@ -275,9 +254,6 @@
     <t>/Update/AutoRestartDeadlinePeriodInDays</t>
   </si>
   <si>
-    <t>/Update/AutoRestartDeadlinePeriodInDaysForFeatureUpdates</t>
-  </si>
-  <si>
     <t>/Update/AutoRestartNotificationSchedule</t>
   </si>
   <si>
@@ -329,15 +305,9 @@
     <t>/Update/EngagedRestartDeadline</t>
   </si>
   <si>
-    <t>/Update/EngagedRestartDeadlineForFeatureUpdates</t>
-  </si>
-  <si>
     <t>/Update/EngagedRestartSnoozeSchedule</t>
   </si>
   <si>
-    <t>/Update/EngagedRestartSnoozeScheduleForFeatureUpdates</t>
-  </si>
-  <si>
     <t>/Update/IgnoreMOAppDownloadLimit</t>
   </si>
   <si>
@@ -387,13 +357,82 @@
   </si>
   <si>
     <t>User Dismissal</t>
+  </si>
+  <si>
+    <t>Product Version</t>
+  </si>
+  <si>
+    <t>Target Release Version (Feature Update)</t>
+  </si>
+  <si>
+    <t>/Update/ProductVersion</t>
+  </si>
+  <si>
+    <t>Windows 11</t>
+  </si>
+  <si>
+    <t>24H2</t>
+  </si>
+  <si>
+    <t>Windows 10</t>
+  </si>
+  <si>
+    <t>23H2</t>
+  </si>
+  <si>
+    <t>22H2</t>
+  </si>
+  <si>
+    <t>Disable Safeguards for Feature Updates</t>
+  </si>
+  <si>
+    <t>/Update/DisableWUfBSafeguards</t>
+  </si>
+  <si>
+    <t>Disable</t>
+  </si>
+  <si>
+    <t>Enable</t>
+  </si>
+  <si>
+    <t>Disable all notifications, excluding restart warnings</t>
+  </si>
+  <si>
+    <t>/Update/ManagePreviewBuilds</t>
+  </si>
+  <si>
+    <t>Manage Preview Builds</t>
+  </si>
+  <si>
+    <t>Disabled</t>
+  </si>
+  <si>
+    <t>Deployment Ring</t>
+  </si>
+  <si>
+    <t>Policy</t>
+  </si>
+  <si>
+    <t>use powershell command 'New-Guid' to create a unique guid for each DO group</t>
+  </si>
+  <si>
+    <t>DeliveryOptimization/DOMaxCacheSize</t>
+  </si>
+  <si>
+    <t>Max cache size as a %</t>
+  </si>
+  <si>
+    <t>Restrict peer selection</t>
+  </si>
+  <si>
+    <t>DeliveryOptimization/DORestrictPeerSelectionBy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -455,8 +494,13 @@
       <color theme="0"/>
       <name val="Metropolis Regular"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Metropolis Regular"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -466,18 +510,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,8 +555,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF001E5F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9C7E2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4A11F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD109FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9FF26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF28324A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7F5FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -546,7 +620,7 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
+      <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="thin">
@@ -557,102 +631,158 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="18" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="7" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -722,11 +852,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFF7F5FC"/>
+      <color rgb="FF4A11F0"/>
+      <color rgb="FF28324A"/>
+      <color rgb="FFC9FF26"/>
+      <color rgb="FFD109FF"/>
+      <color rgb="FFC9C7E2"/>
+      <color rgb="FF717074"/>
+      <color rgb="FF001E5F"/>
       <color rgb="FF50C4FF"/>
       <color rgb="FF8AD8FF"/>
-      <color rgb="FF387C2C"/>
-      <color rgb="FF76C968"/>
-      <color rgb="FF717074"/>
     </mruColors>
   </colors>
   <extLst>
@@ -757,9 +892,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -797,7 +932,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -903,7 +1038,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1045,7 +1180,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1078,7 +1213,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="19">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2">
@@ -1089,10 +1224,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="19">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="7">
         <f>IF(B2&lt;1,1+C2,B2+C2)</f>
         <v>3</v>
       </c>
@@ -1101,10 +1236,10 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="19">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="7">
         <f>B3+C3</f>
         <v>8</v>
       </c>
@@ -1113,10 +1248,10 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="19">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="7">
         <f>B4+C4</f>
         <v>13</v>
       </c>
@@ -1125,10 +1260,10 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="20" thickBot="1">
-      <c r="A6" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="12">
+      <c r="A6" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="7">
         <f>B5+C5</f>
         <v>18</v>
       </c>
@@ -1137,10 +1272,10 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="45" customHeight="1" thickBot="1">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="28"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="3">
         <f>B6+C6</f>
         <v>23</v>
@@ -1158,619 +1293,646 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF2C7DA-A415-954B-81B4-A8D93854445A}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="55.5" style="5" customWidth="1"/>
     <col min="2" max="2" width="61.83203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="40" style="5" customWidth="1"/>
-    <col min="4" max="6" width="15.1640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="32" style="5" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" style="5" customWidth="1"/>
+    <col min="5" max="6" width="15.1640625" style="5" customWidth="1"/>
     <col min="7" max="7" width="37.5" style="5" customWidth="1"/>
     <col min="8" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="59" thickBot="1">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:7" ht="30" customHeight="1">
+      <c r="A1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+    </row>
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="29">
+      <c r="A2" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="21">
+      <c r="A3" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="38">
+        <v>7</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="38">
+        <v>14</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+    </row>
+    <row r="10" spans="1:7" ht="21">
+      <c r="A10" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="30"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="38">
+        <v>0</v>
+      </c>
+      <c r="D15" s="38">
+        <v>3</v>
+      </c>
+      <c r="E15" s="38">
+        <v>8</v>
+      </c>
+      <c r="F15" s="38">
+        <v>13</v>
+      </c>
+      <c r="G15" s="38">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" spans="1:7" ht="34">
+      <c r="A17" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="C17" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="46" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="47">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="44">
+        <v>12</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="38">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="38">
+        <v>8</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="38">
+        <v>1</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="38">
         <v>2</v>
       </c>
-      <c r="D1" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="36" t="s">
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="12"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="12"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="12"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="38">
+        <v>15</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="12"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="12"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="38">
         <v>4</v>
       </c>
-      <c r="F1" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="38" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="21">
-      <c r="A2" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-    </row>
-    <row r="3" spans="1:7" ht="16" thickBot="1">
-      <c r="A3" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="18">
-        <v>2004</v>
-      </c>
-      <c r="E3" s="18">
-        <v>2004</v>
-      </c>
-      <c r="F3" s="18">
-        <v>2004</v>
-      </c>
-      <c r="G3" s="18">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="21">
-      <c r="A4" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="15" t="s">
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="12"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="38">
+        <v>15</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="12"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="13"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="12"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="12"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" s="38">
+        <v>22</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="12"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="13"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="12"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="15" t="s">
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="12"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="18">
-        <v>0</v>
-      </c>
-      <c r="D9" s="18">
-        <v>3</v>
-      </c>
-      <c r="E9" s="18">
+      <c r="C37" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="12"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="12"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="13"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="18">
-        <v>13</v>
-      </c>
-      <c r="G9" s="18">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" s="18">
-        <v>0</v>
-      </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="15" t="s">
+      <c r="B40" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" s="18">
-        <v>14</v>
-      </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-    </row>
-    <row r="13" spans="1:7" ht="32">
-      <c r="A13" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="27">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" s="22">
-        <v>12</v>
-      </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="18">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" s="23">
-        <v>8</v>
-      </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="18">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="23">
-        <v>1</v>
-      </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="23"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="23">
-        <v>2</v>
-      </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="23"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="22">
-        <v>2</v>
-      </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="23"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="23"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="23"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="23"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="23"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C25" s="23">
-        <v>15</v>
-      </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="23"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="D26" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" s="23"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="23"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" s="23">
-        <v>4</v>
-      </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="23"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" s="23">
-        <v>15</v>
-      </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="23"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="23"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="23"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="C32" s="23">
-        <v>22</v>
-      </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="23"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="23"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="23"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="23"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="C37" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="23"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="C39" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="22"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="C40" s="8"/>
+      <c r="C40" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="11"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="C41" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:G1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1778,13 +1940,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E1E2E5-E735-9446-861B-4A00E524544E}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="74.6640625" style="5" customWidth="1"/>
     <col min="2" max="2" width="62.5" style="5" customWidth="1"/>
@@ -1793,133 +1953,164 @@
     <col min="6" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" ht="21">
-      <c r="A1" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="6" t="s">
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="42">
+      <c r="A1" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="48">
+        <v>2</v>
+      </c>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="13">
-        <v>2</v>
-      </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="48">
+        <v>0</v>
+      </c>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="48">
+        <v>5</v>
+      </c>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="13">
-        <v>0</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="C5" s="49">
+        <v>1</v>
+      </c>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C6" s="49">
+        <v>600</v>
+      </c>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="49">
+        <v>60</v>
+      </c>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="48">
+        <v>64</v>
+      </c>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="48">
         <v>1</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="14">
-        <v>3600</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="14">
-        <v>600</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="13">
-        <v>64</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="9" t="s">
+      <c r="C10" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="E10" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="F10" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="9" t="s">
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="5" t="s">
-        <v>59</v>
+      <c r="C12" s="22" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1929,6 +2120,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AF47C8CBDBE3124D94E879DBD1EFB610" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b9e13f7a4a1e60bf4d6dd3854c3ddc13">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="acb0bacd-5e67-4f50-a132-1b36a8c4b0dc" xmlns:ns3="8e03c918-7659-4e8f-9051-23ec0b543ed8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8d4dd71f1bbcacfd7f0db8288877148b" ns2:_="" ns3:_="">
     <xsd:import namespace="acb0bacd-5e67-4f50-a132-1b36a8c4b0dc"/>
@@ -2139,12 +2336,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2155,6 +2346,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50788E35-BDCC-4343-87B0-3A4E866EE54F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="8e03c918-7659-4e8f-9051-23ec0b543ed8"/>
+    <ds:schemaRef ds:uri="acb0bacd-5e67-4f50-a132-1b36a8c4b0dc"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57E40EAC-2F5A-4258-B671-1020C145994D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2173,23 +2381,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50788E35-BDCC-4343-87B0-3A4E866EE54F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="8e03c918-7659-4e8f-9051-23ec0b543ed8"/>
-    <ds:schemaRef ds:uri="acb0bacd-5e67-4f50-a132-1b36a8c4b0dc"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C72EFAB-9C1C-419C-A030-CA7E23D2BD2D}">
   <ds:schemaRefs>
